--- a/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P3A_R-Edad-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.308937635221802</v>
+        <v>0.8541676163641857</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.596735451703118</v>
+        <v>5.551744709411556</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23.08667116978781</v>
+        <v>22.3700615293915</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.290846279316336</v>
+        <v>-2.907500434352162</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>3.612250557515989</v>
+        <v>3.295853219338131</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.893086913222792</v>
+        <v>6.746670784965487</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.144600635012441</v>
+        <v>0.7133811617510105</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>6.050946313429187</v>
+        <v>6.261840909295032</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>16.65861963700492</v>
+        <v>16.48604530917639</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>12.30789759766246</v>
+        <v>12.03946189503589</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>16.77803444356227</v>
+        <v>17.07122168763677</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>40.97023221987278</v>
+        <v>39.77687837116538</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.72991228890172</v>
+        <v>10.36469257661052</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>16.37118141964863</v>
+        <v>16.41353939903436</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>23.13782563428487</v>
+        <v>22.92539092487608</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>10.41707248690183</v>
+        <v>9.503596172559279</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>15.44775936519777</v>
+        <v>15.47629747079385</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>29.02258809958842</v>
+        <v>28.56933099432855</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>0.05396198749425217</v>
+        <v>0.03953536285529706</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.2688545198195915</v>
+        <v>0.250228285177781</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>1.148285967153233</v>
+        <v>1.114930896729478</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.03660559178130457</v>
+        <v>-0.0504911818199192</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.06026940971055549</v>
+        <v>0.06021244765718167</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1248646783238923</v>
+        <v>0.1233424832133383</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03126773238819745</v>
+        <v>0.02246811765724775</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1562410763905407</v>
+        <v>0.1689888347587315</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.4505369551416081</v>
+        <v>0.451863367561525</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.8298014345970961</v>
+        <v>0.7889991379602017</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.100111107485628</v>
+        <v>1.130770560820457</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.612092925508712</v>
+        <v>2.568654085674666</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.215049537289177</v>
+        <v>0.2073975384743561</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.3201737532422976</v>
+        <v>0.3276914631197858</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4552937256876878</v>
+        <v>0.4560124296123904</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3157907113987881</v>
+        <v>0.2949950490564377</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.4689564127734236</v>
+        <v>0.4675489685078665</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8835782395427101</v>
+        <v>0.8711642786754008</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>17.13877955431856</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23.40922768743766</v>
+        <v>23.40922768743768</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.00045560092228</v>
@@ -878,7 +878,7 @@
         <v>11.22753387359577</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>17.19914394006937</v>
+        <v>17.19914394006938</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.496077288009992</v>
+        <v>2.166945835198213</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>11.03573712218007</v>
+        <v>11.44678956623725</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>16.07819073246158</v>
+        <v>16.94515402484686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.039642118250734</v>
+        <v>-1.675758931307085</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.518258323045469</v>
+        <v>-1.45232775015743</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.490705850129278</v>
+        <v>2.771696005294866</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.646575134590598</v>
+        <v>1.220017068477646</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>7.720625292252219</v>
+        <v>7.428902126112294</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>12.70767489139213</v>
+        <v>12.96778881792656</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>13.23228563680733</v>
+        <v>13.33789840823473</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>21.95223836826711</v>
+        <v>22.58234343547432</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>30.02904750536276</v>
+        <v>30.13673166011366</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.669689627880321</v>
+        <v>6.210417250808967</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>6.235741422483185</v>
+        <v>6.34636335200348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>10.15824790191613</v>
+        <v>10.47204239285164</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>9.20397829346318</v>
+        <v>9.132468891021613</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>14.9516837584338</v>
+        <v>14.97857144243784</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>21.19742657467311</v>
+        <v>21.50719574362703</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.4053624216971107</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.5536696002982155</v>
+        <v>0.553669600298216</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.02321707499228312</v>
@@ -983,7 +983,7 @@
         <v>0.1799237928346146</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.2756202070771122</v>
+        <v>0.2756202070771123</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.05337068025780425</v>
+        <v>0.05300457393978245</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2423663238427548</v>
+        <v>0.2547007617011919</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.3619491526904494</v>
+        <v>0.3806189272080949</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.02305590805435037</v>
+        <v>-0.01960225005951517</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.01714482617338987</v>
+        <v>-0.01655070861322052</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0284957386118776</v>
+        <v>0.03117742000646583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02569741629939042</v>
+        <v>0.01996658312435549</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1195975780258517</v>
+        <v>0.1162209098407584</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1976382480564928</v>
+        <v>0.2041858654296433</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3367208727964384</v>
+        <v>0.344504961387316</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.5485027877830095</v>
+        <v>0.5701502284774479</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.754660106336192</v>
+        <v>0.7626133901342448</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.0680351705081732</v>
+        <v>0.07349146345794783</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.07374699672837849</v>
+        <v>0.07591048943292242</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1226043291959661</v>
+        <v>0.124861115093534</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1515737775069558</v>
+        <v>0.1520211512125466</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.2481593612511126</v>
+        <v>0.2495905055487733</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.3502246106467451</v>
+        <v>0.3568715610849695</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>13.32062363557718</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>18.12753383240243</v>
+        <v>18.12753383240242</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.62150403223507</v>
+        <v>10.69762821350024</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>20.31917191597789</v>
+        <v>20.38390378897142</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28.24547556452458</v>
+        <v>28.58600677878854</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-1.53177656313566</v>
+        <v>-1.568283692467149</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3958729994596595</v>
+        <v>0.6092011250651479</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.816996602261715</v>
+        <v>1.814183925747296</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>4.411094528691238</v>
+        <v>4.740783025431005</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>10.10812837046928</v>
+        <v>10.27737569764098</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>14.88125078173336</v>
+        <v>14.48775489648071</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>21.26058690318301</v>
+        <v>21.59579918580188</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>31.37624656713635</v>
+        <v>31.17607273429521</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>39.37259600385691</v>
+        <v>39.05169371645964</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.93034075530575</v>
+        <v>4.117451594875344</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.664672278694784</v>
+        <v>5.687200321183378</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.459109645820543</v>
+        <v>6.338850850562526</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>11.79310947376909</v>
+        <v>11.58060102747914</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>16.82348470283713</v>
+        <v>16.79397428757359</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>21.42169587500149</v>
+        <v>21.33604328880248</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.1955216319451877</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2660780076832605</v>
+        <v>0.2660780076832603</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.2408613169212702</v>
+        <v>0.2438133219749973</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.4519271605768451</v>
+        <v>0.4613413629177673</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.6352734046043331</v>
+        <v>0.6445044057861806</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.0163010801098614</v>
+        <v>-0.0166276109903297</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.004399943977113593</v>
+        <v>0.006659273888922597</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01966063075483871</v>
+        <v>0.01927037722824447</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06270171601738043</v>
+        <v>0.06749629248242925</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.143482769776929</v>
+        <v>0.1465440787714936</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2125168108473672</v>
+        <v>0.2060149633762676</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.5537611474008014</v>
+        <v>0.5734821481923396</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8142991336590406</v>
+        <v>0.8192782742084689</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.043321256505636</v>
+        <v>1.032561886382689</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.04317484173707934</v>
+        <v>0.0449754185220972</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.06217998414874738</v>
+        <v>0.06293637818728942</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07105541408658179</v>
+        <v>0.06933389096696282</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1807891130706928</v>
+        <v>0.1732751929911107</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.2559668314866512</v>
+        <v>0.2550476598519825</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.3273398297849514</v>
+        <v>0.3245697566661426</v>
       </c>
     </row>
     <row r="22">
@@ -1297,7 +1297,7 @@
         <v>1.049397627205106</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.079197393340982</v>
+        <v>3.079197393340971</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>7.46409487379065</v>
@@ -1306,7 +1306,7 @@
         <v>13.83721681519434</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>21.54608964042018</v>
+        <v>21.54608964042021</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>9.217548924538686</v>
+        <v>9.40066646354034</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>19.88169110159412</v>
+        <v>20.01801669656075</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>33.33460666959721</v>
+        <v>33.7333879096361</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-3.625893354328869</v>
+        <v>-3.694801064462756</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-1.436370560073857</v>
+        <v>-1.69074272317147</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.078528199848568</v>
+        <v>0.8054448192131649</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.300773340351829</v>
+        <v>3.447307002088337</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>9.830764304453551</v>
+        <v>9.771411763647684</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>17.70455496377318</v>
+        <v>18.0296884050935</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>21.45998495275017</v>
+        <v>21.41375301077563</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>31.69680814385428</v>
+        <v>32.41455154064001</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>44.17955921858297</v>
+        <v>44.41802319390938</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.272097434545778</v>
+        <v>2.486551683971679</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>3.645282351921657</v>
+        <v>3.795282457094588</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>5.68518672659729</v>
+        <v>5.401554023512448</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>11.24731160618227</v>
+        <v>11.50273369814413</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>17.33329181640093</v>
+        <v>17.48505384474145</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>24.76734545416017</v>
+        <v>24.93353716633167</v>
       </c>
     </row>
     <row r="25">
@@ -1402,7 +1402,7 @@
         <v>0.0111337972986456</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03266937024746645</v>
+        <v>0.03266937024746633</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.1173372367442906</v>
@@ -1411,7 +1411,7 @@
         <v>0.2175241355824272</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.33870933633615</v>
+        <v>0.3387093363361503</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.2491578484520531</v>
+        <v>0.2600342006992774</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.5425331008578979</v>
+        <v>0.5437625061050176</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.9181687720289202</v>
+        <v>0.9089708777852546</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.03807706812577147</v>
+        <v>-0.03888087101047317</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.01469840284684928</v>
+        <v>-0.01754451301704339</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01131316573994651</v>
+        <v>0.008425978597011179</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04771794839028747</v>
+        <v>0.05263083990963129</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.1499177084440615</v>
+        <v>0.1483217396250646</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.2647785555252383</v>
+        <v>0.2719013615831857</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7248272049053119</v>
+        <v>0.7237141307434412</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.055676470923534</v>
+        <v>1.110692185992771</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.486903123896814</v>
+        <v>1.512849499397429</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.02411715230003966</v>
+        <v>0.02691563900482167</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04029067750652514</v>
+        <v>0.04116825537630014</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06206183314410455</v>
+        <v>0.05863335521516684</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1823677931045203</v>
+        <v>0.1880931902212787</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.2818034420000716</v>
+        <v>0.288089207451118</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.4058236812733285</v>
+        <v>0.407915079462364</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>25.72103631192222</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>43.31738163001606</v>
+        <v>43.31738163001605</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>-4.551931247826557</v>
@@ -1511,7 +1511,7 @@
         <v>0.8667218389267983</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>2.411541621372415</v>
+        <v>2.411541621372437</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>4.057506470064098</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>5.324279137808512</v>
+        <v>6.608298852178732</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>19.26738528584535</v>
+        <v>18.70118862179744</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>37.25259981189253</v>
+        <v>37.87943628300624</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-8.483489703360588</v>
+        <v>-8.418538559797961</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.910798436322708</v>
+        <v>-1.784140880936286</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.255358715782115</v>
+        <v>0.07638899587032104</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-0.6933292427581199</v>
+        <v>-0.747059571202492</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>8.401729450935555</v>
+        <v>8.493872126419033</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>18.10102893670709</v>
+        <v>17.94105089702103</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>19.02430626380231</v>
+        <v>19.7637628241509</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>31.76736097586437</v>
+        <v>31.87763434402359</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>48.50710014014633</v>
+        <v>49.55500365294683</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.9114648515136294</v>
+        <v>-0.8001120791007523</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>4.03731352624022</v>
+        <v>3.942792890710413</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.02225574990149</v>
+        <v>5.309330459595087</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>9.155416746204459</v>
+        <v>9.255052742632547</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>17.54024344249053</v>
+        <v>17.68746382159373</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>26.46400713087472</v>
+        <v>25.85977739040736</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>1.01392422932821</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>1.707572830779449</v>
+        <v>1.707572830779448</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>-0.04813560104515702</v>
@@ -1616,7 +1616,7 @@
         <v>0.009165379348738106</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.02550148476992039</v>
+        <v>0.02550148476992063</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.06686866272008964</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1934910753141605</v>
+        <v>0.2285333956039498</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6573729112158999</v>
+        <v>0.6583928802716029</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>1.289693563489285</v>
+        <v>1.303459859505924</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.08863379953176712</v>
+        <v>-0.08765001577083237</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.01971105358333038</v>
+        <v>-0.01875195560876733</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002629815227407527</v>
+        <v>0.0008379997829215582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.01008138378228214</v>
+        <v>-0.01174755310438607</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.1310156930108044</v>
+        <v>0.1361568056704865</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.285178678067632</v>
+        <v>0.2818456060399024</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8703700185139618</v>
+        <v>0.8984685932225771</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.447880220106727</v>
+        <v>1.477544189980822</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.268136903452417</v>
+        <v>2.325155917252058</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.009534146233341438</v>
+        <v>-0.009093765445541377</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.04401128712482295</v>
+        <v>0.04225243672663516</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.05419413173785767</v>
+        <v>0.05759208840397453</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1573807004495094</v>
+        <v>0.1583995842824775</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.3028302224973886</v>
+        <v>0.307646030798897</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.4589970863772009</v>
+        <v>0.4476579427987926</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.190670242750315</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>4.696800925950018</v>
+        <v>4.696800925950006</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>-3.186922258822822</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-11.1049553326451</v>
+        <v>-10.93442181124257</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.8700171418426251</v>
+        <v>-1.293580410472163</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>16.05850281648533</v>
+        <v>15.43028793180691</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-7.096685619921228</v>
+        <v>-7.063034530742889</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-0.8660775854178552</v>
+        <v>-0.5691383661518774</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.261019974799898</v>
+        <v>1.068354207498524</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-8.519511410589846</v>
+        <v>-8.493421306832802</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-0.1111731578883321</v>
+        <v>-1.054700544204115</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>8.283249769327657</v>
+        <v>8.103839535459754</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>4.420450148508086</v>
+        <v>4.421260668847857</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>15.19405637185988</v>
+        <v>14.8693273029349</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>30.26648219397019</v>
+        <v>30.02136124629898</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>2.406345703326137</v>
+        <v>2.712439694037462</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>7.353594792255408</v>
+        <v>7.27623649426328</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.585062245229365</v>
+        <v>8.483147873416847</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>1.584578981168612</v>
+        <v>2.33304028335405</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.845936560419005</v>
+        <v>9.150957139440912</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>16.61756369700859</v>
+        <v>16.59547356764103</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.03562282469018183</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.05243829768054605</v>
+        <v>0.05243829768054593</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>-0.04783571371217003</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.2569014564308763</v>
+        <v>-0.2548938887703247</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.01911667544631149</v>
+        <v>-0.03026498459881311</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.3703592479946412</v>
+        <v>0.35424855621671</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.07720954711584506</v>
+        <v>-0.07718100841598396</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.009246050456143651</v>
+        <v>-0.006213374417725868</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.01343457308726273</v>
+        <v>0.01183718360067658</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.1253261033774461</v>
+        <v>-0.1219334504569121</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.001731755193928651</v>
+        <v>-0.01499753360023554</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.1173458930273412</v>
+        <v>0.1162399911645116</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.1271043130624106</v>
+        <v>0.1255189882599597</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.429844027826939</v>
+        <v>0.4222810934920866</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.867677382941166</v>
+        <v>0.8787955839087973</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.02838276243954307</v>
+        <v>0.03032465727680732</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.0854201961727712</v>
+        <v>0.08428066098259852</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.09958513255526022</v>
+        <v>0.09812280097492468</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.0240469240707304</v>
+        <v>0.03573601899322564</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1534506214489443</v>
+        <v>0.1436020227744336</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.262174257912037</v>
+        <v>0.2627752434303825</v>
       </c>
     </row>
     <row r="40">
@@ -1930,7 +1930,7 @@
         <v>2.826738563116649</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>13.64091925178541</v>
+        <v>13.64091925178543</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>-11.27675132974394</v>
@@ -1939,7 +1939,7 @@
         <v>-2.86035200180772</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>4.683149179374868</v>
+        <v>4.683149179374846</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>-8.953164215606806</v>
@@ -1948,7 +1948,7 @@
         <v>-0.793488679995169</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>7.770720675676701</v>
+        <v>7.770720675676679</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-14.45303772818948</v>
+        <v>-13.72587928340173</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.269534179315132</v>
+        <v>-5.54849345897796</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5.241719072123249</v>
+        <v>5.137882537184621</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-18.33690074152079</v>
+        <v>-18.77603051160097</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-10.23163296876298</v>
+        <v>-10.66897514890064</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-1.92343686467049</v>
+        <v>-1.555565071680262</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-15.11266402799624</v>
+        <v>-15.97886084129828</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-6.215223767761971</v>
+        <v>-7.106662035112192</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>2.803685402230926</v>
+        <v>2.832173761910242</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>3.582626912701052</v>
+        <v>4.361941053150212</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>11.60346807733665</v>
+        <v>11.21390106042242</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>21.35918685269581</v>
+        <v>21.71383813979992</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>-3.099773069543999</v>
+        <v>-3.951649266192077</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>4.830381977387002</v>
+        <v>4.360484588603207</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>10.6373942647885</v>
+        <v>10.38295494053256</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>-2.977420092344009</v>
+        <v>-2.703858805703251</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.041256237539878</v>
+        <v>4.839618097009208</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>13.14294050564764</v>
+        <v>12.47429138353225</v>
       </c>
     </row>
     <row r="43">
@@ -2035,7 +2035,7 @@
         <v>0.07974866958381846</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.3848410944062575</v>
+        <v>0.3848410944062581</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>-0.1608753667440855</v>
@@ -2044,7 +2044,7 @@
         <v>-0.04080609422451856</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0668103179469776</v>
+        <v>0.06681031794697728</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>-0.1578418938632614</v>
@@ -2053,7 +2053,7 @@
         <v>-0.01398899349921153</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.1369957300674936</v>
+        <v>0.1369957300674932</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3693644453087533</v>
+        <v>-0.3400182695863125</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1374544889537963</v>
+        <v>-0.1373435927705655</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.1156661133311799</v>
+        <v>0.1241502260982343</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.2487506814384263</v>
+        <v>-0.2525404746013168</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1359830621056498</v>
+        <v>-0.1453943393505371</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.02601282520398945</v>
+        <v>-0.0209029075151414</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.2519184163409399</v>
+        <v>-0.2605099731111125</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1045073167309306</v>
+        <v>-0.1174500227949627</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.04793197926185793</v>
+        <v>0.04644778064829174</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.114983815461304</v>
+        <v>0.1459375267614818</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.373934122640498</v>
+        <v>0.3579141335747283</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.7054540766603198</v>
+        <v>0.7239039407724897</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>-0.04699275147506565</v>
+        <v>-0.05840767806096595</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.07399429363242128</v>
+        <v>0.0651778751232626</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.1639657125683553</v>
+        <v>0.1598062383548596</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>-0.05766659684708807</v>
+        <v>-0.05013088058189082</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.0938614238723732</v>
+        <v>0.09003479397602102</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.2506130795351765</v>
+        <v>0.233498039555357</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>11.13106821602018</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>18.9014177729871</v>
+        <v>18.90141777298708</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.923339378267102</v>
+        <v>7.244816634515519</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>16.53347087511101</v>
+        <v>16.63562504903612</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>28.68676789221248</v>
+        <v>28.6035281263813</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-2.463600194393381</v>
+        <v>-2.301023496079367</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.480082312816258</v>
+        <v>1.805700156798323</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>4.816625230533678</v>
+        <v>4.952467914616341</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.668432246621061</v>
+        <v>2.7005716222565</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>9.490544770404858</v>
+        <v>9.43639416803315</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>17.35209809089899</v>
+        <v>17.35237320753229</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>11.79425386976589</v>
+        <v>11.5968055832225</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>21.27463633457747</v>
+        <v>21.45145918984147</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>33.64170206653367</v>
+        <v>33.71570525806518</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.135930211450886</v>
+        <v>1.299986576389043</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>4.88131737486777</v>
+        <v>5.14469247087416</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>8.099425163295146</v>
+        <v>8.126360012146565</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>6.0471341317345</v>
+        <v>6.144421446309716</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>12.70614815424781</v>
+        <v>12.68110537700703</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>20.67968877006384</v>
+        <v>20.58086896518673</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.1870441936432507</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>0.3176155583140099</v>
+        <v>0.3176155583140097</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.1935094517507983</v>
+        <v>0.2003687668860519</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.4686421759527538</v>
+        <v>0.4647165203599789</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8101798836531756</v>
+        <v>0.8059953756296536</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.02904392561529426</v>
+        <v>-0.02711095134106173</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.01732320228370395</v>
+        <v>0.02156327031077148</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.05641967197678736</v>
+        <v>0.05849650606630519</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.04403498519298381</v>
+        <v>0.04529924766603922</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1579770928396938</v>
+        <v>0.1563269617089053</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.2862969607251072</v>
+        <v>0.2860144034703844</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3550766035293803</v>
+        <v>0.3447118947413589</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.6452114692014831</v>
+        <v>0.6468100529192412</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>1.021829009472748</v>
+        <v>1.021793836840215</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.01366169804375661</v>
+        <v>0.01563805715229594</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.0585803402610729</v>
+        <v>0.06271755413361396</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.09722897713552871</v>
+        <v>0.09794392259967764</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1032656912445741</v>
+        <v>0.1045035145999461</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2173844331054474</v>
+        <v>0.2167051935113538</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.3530588232136407</v>
+        <v>0.3519892333729826</v>
       </c>
     </row>
     <row r="52">
